--- a/Assets/ArtRes/Excel/GameInfo.xlsx
+++ b/Assets/ArtRes/Excel/GameInfo.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
     <sheet name="DifficultyData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ZombieData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,219 @@
   </si>
   <si>
     <t>Difficulty/Difficulty3</t>
+  </si>
+  <si>
+    <t>animatorRes</t>
+  </si>
+  <si>
+    <t>atkoffect</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>rotateSpeed</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_01</t>
+  </si>
+  <si>
+    <t>Animator/ZombieAnimator/Aggresive</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_02</t>
+  </si>
+  <si>
+    <t>Animator/ZombieAnimator/Broken</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_03</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_04</t>
+  </si>
+  <si>
+    <t>Animator/ZombieAnimator/Crawl</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_05</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_06</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_07</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_08</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_09</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_10</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_11</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_12</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_13</t>
+  </si>
+  <si>
+    <t>Zombies/FemaleZombies/TZ_F_Civ_14</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_01</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_02</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_03</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_04</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_05</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_06</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_07</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_08</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_09</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_10</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_11</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_12</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_13</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_14</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_15</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_16</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_17</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_18</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_19</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_20</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_21</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_22</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_23</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_24</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_25</t>
+  </si>
+  <si>
+    <t>Zombies/MaleZombies/TZ_M_Civ_26</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies1</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies2</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies3</t>
+  </si>
+  <si>
+    <t>Animator/ZombieAnimator/Calm</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies4</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies5</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies6</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies7</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies8</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies9</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies10</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies11</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies12</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies13</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies14</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies15</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies16</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies17</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies18</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies19</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies20</t>
+  </si>
+  <si>
+    <t>Zombies/SpecialZombies/Zombies21</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1248,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1437,7 +1650,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1565,14 +1778,1677 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="37.7777777777778" customWidth="1"/>
+    <col min="3" max="4" width="4.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.7777777777778" customWidth="1"/>
+    <col min="6" max="7" width="10.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64">
+        <v>0.5</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65">
+        <v>0.5</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
